--- a/ee.xlsx
+++ b/ee.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0873B4D-64FE-40C7-A615-7574350B4629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -129,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,36 +447,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1">
         <f>(B1*B3*B5*B6*12)/B7</f>
-        <v>333556.36363636365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>340363.63636363635</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -479,7 +486,7 @@
         <v>8568</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -491,10 +498,10 @@
       </c>
       <c r="E3">
         <f>(12*B2*B4*B5*B6)/B7</f>
-        <v>183796.36363636365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190603.63636363635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -506,10 +513,10 @@
       </c>
       <c r="E4">
         <f>(12*B10*B11*B5*B6)/B7</f>
-        <v>127636.36363636363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170181.81818181818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -530,7 +537,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -542,7 +549,7 @@
       </c>
       <c r="E6">
         <f>B15*(E4+E5)</f>
-        <v>12931.636363636364</v>
+        <v>17186.18181818182</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -551,7 +558,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -563,7 +570,7 @@
       </c>
       <c r="E7">
         <f>E4+E5+E6</f>
-        <v>142248</v>
+        <v>189048</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -572,7 +579,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -584,7 +591,7 @@
       </c>
       <c r="E8">
         <f>E7*B13</f>
-        <v>14224.800000000001</v>
+        <v>18904.8</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -593,7 +600,7 @@
         <v>29664</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -605,25 +612,25 @@
       </c>
       <c r="E9">
         <f>E2+E3+E8</f>
-        <v>206589.16363636364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>218076.43636363634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
         <f>E1-E9</f>
-        <v>126967.20000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122287.20000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -635,7 +642,7 @@
       </c>
       <c r="E11">
         <f>(12*B10*B11*B5*B6*B14)/B7</f>
-        <v>5360.727272727273</v>
+        <v>7147.636363636364</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
@@ -645,7 +652,7 @@
         <v>117064</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -659,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -671,10 +678,10 @@
       </c>
       <c r="E13">
         <f>E7</f>
-        <v>142248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>189048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -686,10 +693,10 @@
       </c>
       <c r="E14">
         <f>E11+E12+E13+H11</f>
-        <v>264672.72727272729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>313259.63636363635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -701,16 +708,16 @@
       </c>
       <c r="E15">
         <f>E10/E14</f>
-        <v>0.47971395205055989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.3903701141312928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16">
         <f>E14/E10</f>
-        <v>2.0845756012003673</v>
+        <v>2.5616715107029706</v>
       </c>
     </row>
   </sheetData>
